--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pruthviraj.vaghela\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12409172-06AD-4BF8-B20F-978F299E78D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BCF4A8-28D3-4097-BE99-1775B6AA0E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A542993-432F-483F-A630-A752F344BB79}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="136">
   <si>
     <t>Action Item</t>
   </si>
@@ -53,15 +53,6 @@
     <t>Hours Spent</t>
   </si>
   <si>
-    <t>Expected Due Date</t>
-  </si>
-  <si>
-    <t>Date Completed</t>
-  </si>
-  <si>
-    <t>Comments/Notes/Resolution</t>
-  </si>
-  <si>
     <t>Post PDR</t>
   </si>
   <si>
@@ -81,12 +72,6 @@
   </si>
   <si>
     <t>5 hours</t>
-  </si>
-  <si>
-    <t>3/28/19</t>
-  </si>
-  <si>
-    <t>Check with Prof Hill, Chris H and/or Jaap before CDR 4/9/19</t>
   </si>
   <si>
     <t>Task 2</t>
@@ -114,13 +99,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Daniel: Servos
-Noah: LiPo Batteries/Connectors; MCU
-Ridel: Modular Contacts; Test Magnets
-*see IEEE office for extra ball casters
-Items arrived on or before 3/19/19</t>
-  </si>
-  <si>
     <t>Task 3</t>
   </si>
   <si>
@@ -133,15 +111,6 @@
     <t>20 hours</t>
   </si>
   <si>
-    <t>3/19/19</t>
-  </si>
-  <si>
-    <t>3/17/19</t>
-  </si>
-  <si>
-    <t>Subject to change</t>
-  </si>
-  <si>
     <t>Task 4</t>
   </si>
   <si>
@@ -154,15 +123,6 @@
     <t>35 hours</t>
   </si>
   <si>
-    <t>3/26/19</t>
-  </si>
-  <si>
-    <t>3/25/19</t>
-  </si>
-  <si>
-    <t>Side braces prints currently in progress; all prints should be ready by 3/26/19 for kinematic and Docking test</t>
-  </si>
-  <si>
     <t>Task 5</t>
   </si>
   <si>
@@ -175,12 +135,6 @@
     <t>25 hours</t>
   </si>
   <si>
-    <t>3/21/19</t>
-  </si>
-  <si>
-    <t>Code only for testing</t>
-  </si>
-  <si>
     <t>Task 6</t>
   </si>
   <si>
@@ -199,12 +153,6 @@
     <t>12 hours</t>
   </si>
   <si>
-    <t>4/49/19</t>
-  </si>
-  <si>
-    <t>Get wireless command ready for Mission Control Panel transition after CDR</t>
-  </si>
-  <si>
     <t>Pre-CDR tests*</t>
   </si>
   <si>
@@ -220,9 +168,6 @@
     <t>6 hours</t>
   </si>
   <si>
-    <t>Minimum Degrees of turn: at least 1° consistently; see tolerance test document for more details</t>
-  </si>
-  <si>
     <t>Task 10*</t>
   </si>
   <si>
@@ -232,11 +177,6 @@
     <t>Team</t>
   </si>
   <si>
-    <t>Magnets rated above 5lb-pull force are too strong
-*Needs retest with better test procedure
--4/30/19 1.7 lb force just strong enough to dock while keeping servo position while off</t>
-  </si>
-  <si>
     <t>Task 11*</t>
   </si>
   <si>
@@ -246,10 +186,6 @@
     <t>3 hours</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
     <t>Task 12*</t>
   </si>
   <si>
@@ -259,9 +195,6 @@
     <t>1 hour</t>
   </si>
   <si>
-    <t>4/2/19: Docking Design pretty reliable; video for CDR; Slots and/or Cross tolerance too tight (revise dimensions); *see test reports</t>
-  </si>
-  <si>
     <t>Task 13*</t>
   </si>
   <si>
@@ -274,10 +207,6 @@
     <t>Docking-Power Transfer Interface Test: Docking Continuity Test with Modular Contacts</t>
   </si>
   <si>
-    <t>4/2/19: Modular contacts unreliable and unconsistent; see new design iteration for docking-Power Transfer Interface
-4/4/19: see videos of all three docking design</t>
-  </si>
-  <si>
     <t>Task 15</t>
   </si>
   <si>
@@ -311,9 +240,6 @@
     <t>Ridel</t>
   </si>
   <si>
-    <t>*post test rev up</t>
-  </si>
-  <si>
     <t>Task 19</t>
   </si>
   <si>
@@ -329,9 +255,6 @@
     <t>15 hours</t>
   </si>
   <si>
-    <t>Seperate PCB for module no longer required, buck converter shall be utilized</t>
-  </si>
-  <si>
     <t>Task 21</t>
   </si>
   <si>
@@ -341,16 +264,10 @@
     <t>30 hours</t>
   </si>
   <si>
-    <t>*Awaiting review and approval</t>
-  </si>
-  <si>
     <t>Task 22</t>
   </si>
   <si>
     <t>Module Design (Battery &amp; PCB mounts and Docking)</t>
-  </si>
-  <si>
-    <t>4/21/19</t>
   </si>
   <si>
     <t>Task 23</t>
@@ -399,9 +316,6 @@
 Noah: 7 Hours</t>
   </si>
   <si>
-    <t>*Log your hours for each section that you worked on; this way we can make sure we cover everything on the CDR outline;</t>
-  </si>
-  <si>
     <t>Task 26</t>
   </si>
   <si>
@@ -417,15 +331,6 @@
     <t>Inverse Kinematics Subroutine</t>
   </si>
   <si>
-    <t>4/15/18</t>
-  </si>
-  <si>
-    <t>4/18/19</t>
-  </si>
-  <si>
-    <t>Calculate inverse kinematics, and write subroutine to move arm forward, backwards, left and right. Implement into code as a custom command using Joystick.</t>
-  </si>
-  <si>
     <t>Post CDR</t>
   </si>
   <si>
@@ -438,34 +343,18 @@
     <t>Pending</t>
   </si>
   <si>
-    <t>4/13/19</t>
-  </si>
-  <si>
-    <t>Not many changes required based on feedback (just fixed the will). May have to change more later based on updated design of locking mech</t>
-  </si>
-  <si>
     <t>Task 29</t>
   </si>
   <si>
     <t>Mechanical arm Final design Revision</t>
   </si>
   <si>
-    <t>4/25/19</t>
-  </si>
-  <si>
-    <t>*May have one more revision for the should requirement 
-*Ordered final print from the library 4/25/19; estimated finish date 5/2/19</t>
-  </si>
-  <si>
     <t>Task 30</t>
   </si>
   <si>
     <t>Docking Design Final Design Revision</t>
   </si>
   <si>
-    <t>4/17/19: Added positive lock design per customer's request added to the design; need to test tolerance of holes and fittings</t>
-  </si>
-  <si>
     <t>Task 31</t>
   </si>
   <si>
@@ -475,21 +364,12 @@
     <t>Daniel/Noah</t>
   </si>
   <si>
-    <t>Completed</t>
-  </si>
-  <si>
     <t>Task 32</t>
   </si>
   <si>
     <t>Order PCB (Power and Actuator &amp; Wireless Telemetry)</t>
   </si>
   <si>
-    <t>4/14/19</t>
-  </si>
-  <si>
-    <t>*Check Final Design with Prof Hill, Chris and Jaap before ordering</t>
-  </si>
-  <si>
     <t>Final 4 Weeks</t>
   </si>
   <si>
@@ -505,9 +385,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Design docking cross around camera and use modular contact pairs for LED</t>
-  </si>
-  <si>
     <t>Task 34</t>
   </si>
   <si>
@@ -517,40 +394,22 @@
     <t>Daniel/Noah/Julie</t>
   </si>
   <si>
-    <t>*talk to arxterra team and present control panel plan for Limbi after CDR feedback</t>
-  </si>
-  <si>
     <t>Task 35</t>
   </si>
   <si>
     <t>Print Parts for final assembly</t>
   </si>
   <si>
-    <t>4/27/19</t>
-  </si>
-  <si>
-    <t>-Final arm design ordered (4/25); will be ready by 5/2/19</t>
-  </si>
-  <si>
     <t>Task 36</t>
   </si>
   <si>
     <t>Procure all needed parts</t>
   </si>
   <si>
-    <t xml:space="preserve">*should arrive on or before 5/4/19
--about 90% of needed parts are already obtained by this date 4/25/19
--modular contacts arrived 5/1/19
-</t>
-  </si>
-  <si>
     <t>Task 37</t>
   </si>
   <si>
     <t>Verification Test Plan</t>
-  </si>
-  <si>
-    <t>4/30/19</t>
   </si>
   <si>
     <t>Task 38</t>
@@ -1182,13 +1041,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EC6320-468F-4481-8EF2-9229C9C3F928}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1208,682 +1067,558 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="6"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="268.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="243" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="6"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="192" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>38</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>44</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="6"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="9">
-        <v>43773</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="141" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="6"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="294" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="5" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="9">
-        <v>43528</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>62</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="6"/>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="5" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="9">
-        <v>43500</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>66</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="6"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" ht="217.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="9">
-        <v>43500</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>70</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="5" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="9">
-        <v>43529</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>66</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="10"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="268.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="5" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="9">
-        <v>43559</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>75</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="6"/>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7">
         <v>4.5</v>
       </c>
-      <c r="H15" s="9">
-        <v>43469</v>
-      </c>
-      <c r="I15" s="9">
-        <v>43469</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="6"/>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7">
         <v>9</v>
       </c>
-      <c r="H16" s="9">
-        <v>43620</v>
-      </c>
-      <c r="I16" s="9">
-        <v>43620</v>
-      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="6"/>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7">
         <v>1.5</v>
       </c>
-      <c r="H17" s="9">
-        <v>43620</v>
-      </c>
-      <c r="I17" s="9">
-        <v>43589</v>
-      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="6"/>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="9">
-        <v>43650</v>
-      </c>
-      <c r="I18" s="9">
-        <v>43650</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>87</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="6"/>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="9">
-        <v>43650</v>
-      </c>
-      <c r="I19" s="9">
-        <v>43650</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>87</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="6"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="5" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H20" s="9">
-        <v>43650</v>
-      </c>
-      <c r="I20" s="9">
-        <v>43589</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>93</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="6"/>
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="5" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H21" s="9">
-        <v>43650</v>
-      </c>
-      <c r="I21" s="9">
-        <v>43589</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>97</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="6"/>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="5" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="9">
-        <v>43650</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>100</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="6"/>
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="5" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7">
         <v>2</v>
@@ -1896,225 +1631,189 @@
     <row r="24" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="5" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G24" s="7">
         <v>3</v>
       </c>
-      <c r="H24" s="9">
-        <v>43650</v>
-      </c>
-      <c r="I24" s="9">
-        <v>43650</v>
-      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
       <c r="J24" s="6"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" ht="192" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="5" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F25" s="12">
         <v>0.25</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" s="9">
-        <v>43681</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="H25" s="9"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="J25" s="6"/>
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="5" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="9">
-        <v>43681</v>
-      </c>
-      <c r="I26" s="13">
-        <v>44839</v>
-      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="13"/>
       <c r="J26" s="6"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" ht="243" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G27" s="7">
         <v>10</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>118</v>
-      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="6"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" ht="204.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="G28" s="7">
         <v>0.5</v>
       </c>
-      <c r="H28" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I28" s="9">
-        <v>43773</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>124</v>
-      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="6"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" ht="217.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="5" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>128</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="6"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" ht="217.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="5" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G30" s="6"/>
-      <c r="H30" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I30" s="13">
-        <v>44625</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>131</v>
-      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="6"/>
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:11" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="5" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="F31" s="12">
         <v>1</v>
@@ -2122,28 +1821,24 @@
       <c r="G31" s="7">
         <v>5</v>
       </c>
-      <c r="H31" s="7" t="s">
-        <v>123</v>
-      </c>
+      <c r="H31" s="7"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="6" t="s">
-        <v>135</v>
-      </c>
+      <c r="J31" s="6"/>
       <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:11" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="5" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="F32" s="12">
         <v>1</v>
@@ -2151,305 +1846,253 @@
       <c r="G32" s="7">
         <v>1</v>
       </c>
-      <c r="H32" s="7" t="s">
-        <v>138</v>
-      </c>
+      <c r="H32" s="7"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="6" t="s">
-        <v>139</v>
-      </c>
+      <c r="J32" s="6"/>
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="1:11" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="D33" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="F33" s="7" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>145</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="6"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="5" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G34" s="6"/>
-      <c r="H34" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I34" s="9">
-        <v>43681</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>149</v>
-      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="6"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="5" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F35" s="12">
         <v>0.5</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="I35" s="9">
-        <v>43743</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>153</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="6"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" ht="230.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="5" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G36" s="6"/>
-      <c r="H36" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="I36" s="9">
-        <v>43470</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>156</v>
-      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="6"/>
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="5" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G37" s="7">
         <v>26</v>
       </c>
-      <c r="H37" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="I37" s="9">
-        <v>43743</v>
-      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="9"/>
       <c r="J37" s="16"/>
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="5" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="6"/>
       <c r="K38" s="3"/>
     </row>
     <row r="39" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="5" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G39" s="7">
         <v>5</v>
       </c>
-      <c r="H39" s="9">
-        <v>43560</v>
-      </c>
-      <c r="I39" s="13">
-        <v>44839</v>
-      </c>
+      <c r="H39" s="9"/>
+      <c r="I39" s="13"/>
       <c r="J39" s="6"/>
       <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="5" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G40" s="7">
         <v>5</v>
       </c>
-      <c r="H40" s="9">
-        <v>43560</v>
-      </c>
-      <c r="I40" s="13">
-        <v>44839</v>
-      </c>
+      <c r="H40" s="9"/>
+      <c r="I40" s="13"/>
       <c r="J40" s="6"/>
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G41" s="6"/>
-      <c r="H41" s="9">
-        <v>43774</v>
-      </c>
-      <c r="I41" s="13">
-        <v>44839</v>
-      </c>
+      <c r="H41" s="9"/>
+      <c r="I41" s="13"/>
       <c r="J41" s="6"/>
       <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:11" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="18" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="G42" s="22"/>
-      <c r="H42" s="23">
-        <v>43804</v>
-      </c>
+      <c r="H42" s="23"/>
       <c r="I42" s="19"/>
       <c r="J42" s="19"/>
       <c r="K42" s="3"/>
@@ -2457,32 +2100,26 @@
     <row r="43" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="18" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I43" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43" s="21" t="s">
-        <v>23</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
       <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2516,7 +2153,7 @@
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="25" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="E46" s="25"/>
       <c r="F46" s="25"/>
@@ -2531,7 +2168,7 @@
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="E47" s="26">
         <v>43</v>
@@ -2548,7 +2185,7 @@
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="E48" s="26">
         <v>41</v>
@@ -2565,7 +2202,7 @@
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="E49" s="26">
         <v>41</v>
@@ -2582,7 +2219,7 @@
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="E50" s="27">
         <v>1</v>
@@ -2599,7 +2236,7 @@
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="E51" s="27">
         <v>0.95</v>
